--- a/general_tools/Brier Calculator.xlsx
+++ b/general_tools/Brier Calculator.xlsx
@@ -16,7 +16,7 @@
     <sheet name="3 Outcome" sheetId="2" r:id="rId2"/>
     <sheet name="5 Outcome" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,27 +486,27 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.99</v>
+        <v>0.2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C3" si="0">(A2-B2)^2</f>
-        <v>1.0000000000000018E-4</v>
+        <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1-A2</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>1.0000000000000018E-4</v>
+        <v>3.999999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
       </c>
       <c r="C8">
         <f>SUM(C2:C6)</f>
-        <v>2.0000000000000036E-4</v>
+        <v>7.9999999999999988E-2</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +733,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,46 +779,46 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <f>(B2-C2)^2</f>
-        <v>4.9000000000000007E-3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
         <f>(E2-SUM(C2))^2</f>
-        <v>4.9000000000000007E-3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(B2:B3)</f>
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H2" s="7">
         <f>(G2-SUM(C2:C3))^2</f>
-        <v>4.8399999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
         <f>SUM(B2:B4)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J2" s="7">
         <f>(I2-SUM(C2:C4))^2</f>
-        <v>0.16000000000000003</v>
+        <v>0.09</v>
       </c>
       <c r="K2" s="7">
         <f>SUM(B2:B5)</f>
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="L2" s="7">
         <f>(K2-SUM(C2:C5))^2</f>
-        <v>0.43560000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -826,22 +826,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <f>(B3-C3)^2</f>
-        <v>2.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="8">
         <f>SUM(B3:B6)</f>
-        <v>0.92999999999999994</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8">
         <f>(E3-SUM(C3:C6))^2</f>
-        <v>4.9000000000000085E-3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="7"/>
@@ -855,24 +855,24 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <f>(B4-C4)^2</f>
-        <v>3.2399999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="7">
         <f>SUM(B4:B6)</f>
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="H4" s="8">
         <f>(G4-SUM(C4:C6))^2</f>
-        <v>4.8399999999999992E-2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -884,14 +884,14 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.26</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f>(B5-C5)^2</f>
-        <v>6.7600000000000007E-2</v>
+        <v>9.0000000000000024E-2</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -899,11 +899,11 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8">
         <f>SUM(B5:B6)</f>
-        <v>0.60000000000000009</v>
+        <v>0.7</v>
       </c>
       <c r="J5" s="7">
         <f>(I5-SUM(C5:C6))^2</f>
-        <v>0.15999999999999992</v>
+        <v>9.0000000000000024E-2</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -913,14 +913,14 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>(B6-C6)^2</f>
-        <v>0.43559999999999988</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -930,11 +930,11 @@
       <c r="J6" s="7"/>
       <c r="K6">
         <f>SUM(B6)</f>
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f>(K6-SUM(C6))^2</f>
-        <v>0.43559999999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -964,27 +964,27 @@
       </c>
       <c r="D9">
         <f>SUM(D2:D6)</f>
-        <v>0.56299999999999994</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="F9">
         <f>SUM(F2:F6)</f>
-        <v>9.8000000000000101E-3</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f>SUM(H2:H6)</f>
-        <v>9.6799999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f>SUM(J2:J6)</f>
-        <v>0.31999999999999995</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="L9">
         <f>SUM(L2:L6)</f>
-        <v>0.87119999999999997</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f>AVERAGE(F9:L9)</f>
-        <v>0.32445000000000002</v>
+        <v>4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
